--- a/biology/Botanique/Liste_de_plats_à_base_de_légumineuses/Liste_de_plats_à_base_de_légumineuses.xlsx
+++ b/biology/Botanique/Liste_de_plats_à_base_de_légumineuses/Liste_de_plats_à_base_de_légumineuses.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_de_plats_%C3%A0_base_de_l%C3%A9gumineuses</t>
+          <t>Liste_de_plats_à_base_de_légumineuses</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Liste de plats à base de légumineuses. Les légumineuses sont des plantes de la famille des Fabaceae (ou Leguminosae) dont on consomme généralement le fruit ou la graine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_de_plats_%C3%A0_base_de_l%C3%A9gumineuses</t>
+          <t>Liste_de_plats_à_base_de_légumineuses</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,16 +525,89 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0–9
-15 bean soup
-A
-Acarajé
+          <t>0–9</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>15 bean soup</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Liste_de_plats_à_base_de_légumineuses</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plats_%C3%A0_base_de_l%C3%A9gumineuses</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Plats à base de légumineuses</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Acarajé
 Aloo matar
 Amanattō
 Arroz con gandules
-Avre bendi
-B
-Baked beans
+Avre bendi</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_de_plats_à_base_de_légumineuses</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plats_%C3%A0_base_de_l%C3%A9gumineuses</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Plats à base de légumineuses</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Baked beans
 Balila
 Bandeja paisa
 Bap (food)
@@ -539,9 +624,43 @@
 Bouillie de pois
 Bouneschlupp
 Bubur kacang hijau
-Tofu birman
-C
-Callos
+Tofu birman</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_de_plats_à_base_de_légumineuses</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plats_%C3%A0_base_de_l%C3%A9gumineuses</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Plats à base de légumineuses</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Callos
 Caparrones
 Cassoulet
 Chana masala
@@ -553,9 +672,43 @@
 Cocido madrilène
 Cocido montañés
 Cofresi Chili
-Cowboy beans
-D
-Dal
+Cowboy beans</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_de_plats_à_base_de_légumineuses</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plats_%C3%A0_base_de_l%C3%A9gumineuses</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Plats à base de légumineuses</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Dal
 Dal baati
 Dal bhat
 Dalcha
@@ -565,9 +718,43 @@
 Dhokla
 Dilly beans
 Doubles
-Douzhi
-F
-Fabada asturiana
+Douzhi</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_de_plats_à_base_de_légumineuses</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plats_%C3%A0_base_de_l%C3%A9gumineuses</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Plats à base de légumineuses</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Fabada asturiana
 Fabes con almejas
 Falafel
 Farinata
@@ -576,38 +763,242 @@
 Feijoada
 Frijoles charros
 Frijoles negros
-Foul
-G
-Gallo pinto
+Foul</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_de_plats_à_base_de_légumineuses</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plats_%C3%A0_base_de_l%C3%A9gumineuses</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Plats à base de légumineuses</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Gallo pinto
 Garnache
 Ghugni
 Gigandes plaki
 Githeri
 Green bean casserole
-Guernsey Bean Jar
-H
-Hoppin' John
-Houmous
-J
-Jidou liangfen
-Judd mat Gaardebounen
-K
-Kluklu
+Guernsey Bean Jar</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Liste_de_plats_à_base_de_légumineuses</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plats_%C3%A0_base_de_l%C3%A9gumineuses</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Plats à base de légumineuses</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Hoppin' John
+Houmous</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Liste_de_plats_à_base_de_légumineuses</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plats_%C3%A0_base_de_l%C3%A9gumineuses</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Plats à base de légumineuses</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Jidou liangfen
+Judd mat Gaardebounen</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Liste_de_plats_à_base_de_légumineuses</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plats_%C3%A0_base_de_l%C3%A9gumineuses</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Plats à base de légumineuses</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Kluklu
 Kongbap
 Kootu
 Kosambari
 Kuli-kuli
 Kuru fasulye
 Kuzhambu
-Kwati (soup)
-L
-Lablabi
+Kwati (soup)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Liste_de_plats_à_base_de_légumineuses</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plats_%C3%A0_base_de_l%C3%A9gumineuses</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Plats à base de légumineuses</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Lablabi
 Laping
 soupe de lentilles
 Liangfen
-Lobio
-M
-Marrowfat peas
+Lobio</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Liste_de_plats_à_base_de_légumineuses</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plats_%C3%A0_base_de_l%C3%A9gumineuses</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Plats à base de légumineuses</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Marrowfat peas
 Matevž
 Mattar paneer
 Minestrone
@@ -616,13 +1007,115 @@
 Msabbaha
 Mujaddara
 Murukku
-Mushy peas
-N
-Nokdumuk
-O
-Olla podrida
-P
-Pabellón criollo
+Mushy peas</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Liste_de_plats_à_base_de_légumineuses</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plats_%C3%A0_base_de_l%C3%A9gumineuses</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Plats à base de légumineuses</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Nokdumuk</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Liste_de_plats_à_base_de_légumineuses</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plats_%C3%A0_base_de_l%C3%A9gumineuses</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Plats à base de légumineuses</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Olla podrida</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Liste_de_plats_à_base_de_légumineuses</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plats_%C3%A0_base_de_l%C3%A9gumineuses</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Plats à base de légumineuses</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Pabellón criollo
 Panelle
 Papadum
 Paripu
@@ -636,9 +1129,43 @@
 Pokhemma
 Pork and beans
 Porotos con rienda
-Purtumute
-R
-Ragda patties
+Purtumute</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Liste_de_plats_à_base_de_légumineuses</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plats_%C3%A0_base_de_l%C3%A9gumineuses</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Plats à base de légumineuses</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Ragda patties
 Rajma
 Red bean cake
 Red bean ice
@@ -648,26 +1175,196 @@
 Refried beans
 Revalenta arabica
 Rice and beans
-Rice and peas
-S
-Sambar
+Rice and peas</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Liste_de_plats_à_base_de_légumineuses</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plats_%C3%A0_base_de_l%C3%A9gumineuses</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Plats à base de légumineuses</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Sambar
 Senate bean soup
 Shahan ful
 Shiro
 Soup beans
 Soupe aux pois
-Succotash
-T
-Tavče gravče
+Succotash</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Liste_de_plats_à_base_de_légumineuses</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plats_%C3%A0_base_de_l%C3%A9gumineuses</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Plats à base de légumineuses</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Tavče gravče
 Texas caviar
-Tortillitas de camarones
-U
-Ulava charu
-Umngqusho
-V
-Vegetarian chili
-Y
-Yun dou juan</t>
+Tortillitas de camarones</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Liste_de_plats_à_base_de_légumineuses</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plats_%C3%A0_base_de_l%C3%A9gumineuses</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Plats à base de légumineuses</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>U</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Ulava charu
+Umngqusho</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Liste_de_plats_à_base_de_légumineuses</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plats_%C3%A0_base_de_l%C3%A9gumineuses</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Plats à base de légumineuses</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Vegetarian chili</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Liste_de_plats_à_base_de_légumineuses</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_plats_%C3%A0_base_de_l%C3%A9gumineuses</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Plats à base de légumineuses</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Yun dou juan</t>
         </is>
       </c>
     </row>
